--- a/resources/internals/Applied SQL Statements.xlsx
+++ b/resources/internals/Applied SQL Statements.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\Konnexions\db_seeder\resources\internals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A089F6E-6523-4372-A892-A41CEE021CC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DDA4DA-E7DE-4A23-A9B6-A9A197E849FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25830" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{3D060459-F684-4951-98F4-AECBFBBAE517}"/>
+    <workbookView xWindow="25770" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{3D060459-F684-4951-98F4-AECBFBBAE517}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$30</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t>DATABASE</t>
   </si>
@@ -115,19 +118,6 @@
   </si>
   <si>
     <t>Properties</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_DATABASE=kxn_db
-DB_SEEDER_DATABASE_SYS=agens
-DB_SEEDER_PASSWORD=agens
-DB_SEEDER_PASSWORD_SYS=agens
-DB_SEEDER_USER=kxn_user
-DB_SEEDER_USER_SYS=agens</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_PASSWORD=cratedb
-DB_SEEDER_USER=kxn_user
-DB_SEEDER_USER_SYS=crate</t>
   </si>
   <si>
     <t>DB_SEEDER_DATABASE=kxn_db
@@ -154,12 +144,6 @@
 DB_SEEDER_PASSWORD_SYS=firebird
 DB_SEEDER_USER=kxn_user
 DB_SEEDER_USER_SYS=SYSDBA</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_DATABASE=.\tmp\h2_kxn_db
-DB_SEEDER_PASSWORD=h2
-DB_SEEDER_SCHEMA=kxn_schema
-DB_SEEDER_USER=kxn_user</t>
   </si>
   <si>
     <t>DB_SEEDER_DATABASE=kxn_db
@@ -247,23 +231,6 @@
 DB_SEEDER_PASSWORD_SYS=percona
 DB_SEEDER_USER=kxn_user
 DB_SEEDER_USER_SYS=root</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_DATABASE=kxn_db
-DB_SEEDER_DATABASE_SYS=kxn_db_sys
-DB_SEEDER_PASSWORD=postgresql
-DB_SEEDER_PASSWORD_SYS=postgresql
-DB_SEEDER_USER=kxn_user
-DB_SEEDER_USER_SYS=kxn_user_sys</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_DATABASE=kxn_db
-DB_SEEDER_DATABASE_SYS=kxn_db_sys
-DB_SEEDER_PASSWORD=postgresql
-DB_SEEDER_PASSWORD_SYS=postgresql
-DB_SEEDER_SCHEMA=public
-DB_SEEDER_USER=kxn_user
-DB_SEEDER_USER_SYS=kxn_user_sys</t>
   </si>
   <si>
     <t>DB_SEEDER_DATABASE=kxn_db
@@ -279,13 +246,6 @@
 DB_SEEDER_USER=kxn_user</t>
   </si>
   <si>
-    <t>DB_SEEDER_DATABASE=kxn_db
-DB_SEEDER_DATABASE_SYS=yugabyte
-DB_SEEDER_PASSWORD=yugabyte
-DB_SEEDER_USER=kxn_user
-DB_SEEDER_USER_SYS=yugabyte</t>
-  </si>
-  <si>
     <t>Suffix</t>
   </si>
   <si>
@@ -296,13 +256,81 @@
   </si>
   <si>
     <t>Teardown</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>DROP SCHEMA IF EXISTS schemaName CASCADE
+DROP DATABASE IF EXISTS databaseName
+DROP USER IF EXISTS userName</t>
+  </si>
+  <si>
+    <t>CREATE DATABASE databaseName,
+CREATE USER userName WITH ENCRYPTED PASSWORD 'password'
+GRANT ALL PRIVILEGES ON DATABASE databaseName TO userName
+===
+CREATE SCHEMA schemaName
+SET search_path = schemaName</t>
+  </si>
+  <si>
+    <t>see postgresql</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_DATABASE
+DB_SEEDER_DATABASE_SYS
+DB_SEEDER_PASSWORD
+DB_SEEDER_PASSWORD_SYS
+DB_SEEDER_SCHEMA
+DB_SEEDER_USER
+DB_SEEDER_USER_SYS</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_PASSWORD
+DB_SEEDER_USER
+DB_SEEDER_USER_SYS</t>
+  </si>
+  <si>
+    <t>DROP USER IF EXISTS userName</t>
+  </si>
+  <si>
+    <t>CREATE USER  userName  WITH (PASSWORD = 'password')
+GRANT ALL PRIVILEGES TO  userName</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_DATABASE
+DB_SEEDER_PASSWORD
+DB_SEEDER_SCHEMA
+DB_SEEDER_USER</t>
+  </si>
+  <si>
+    <t>DROP SCHEMA schemaName CASCADE
+DROP USER userName</t>
+  </si>
+  <si>
+    <t>CREATE USER userName PASSWORD 'password' ADMIN
+CREATE SCHEMA schemaName AUTHORIZATION  userName</t>
+  </si>
+  <si>
+    <t>see h2</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_DATABASE
+DB_SEEDER_DATABASE_SYS
+DB_SEEDER_PASSWORD
+DB_SEEDER_SCHEMA
+DB_SEEDER_USER
+DB_SEEDER_USER_SYS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +349,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -352,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,6 +411,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -684,23 +733,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14B0BC3-55B1-47F7-9E30-19EE4D53C473}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -717,338 +770,430 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>44</v>
+    <row r="19" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>59</v>
+    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>43</v>
+    <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>45</v>
+    <row r="28" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G30">
+  <autoFilter ref="A1:K30" xr:uid="{FE257D6B-B550-4D56-AD72-8214075EEB2B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
     <sortCondition ref="A2:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/internals/Applied SQL Statements.xlsx
+++ b/resources/internals/Applied SQL Statements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\Konnexions\db_seeder\resources\internals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DDA4DA-E7DE-4A23-A9B6-A9A197E849FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE49F3C3-9A1F-4096-B53D-AC73B987DB31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25770" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{3D060459-F684-4951-98F4-AECBFBBAE517}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>DATABASE</t>
   </si>
@@ -733,13 +733,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14B0BC3-55B1-47F7-9E30-19EE4D53C473}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -788,7 +789,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -817,7 +818,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -846,8 +847,11 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -857,7 +861,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -867,7 +871,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -886,7 +890,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -899,7 +903,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -916,7 +920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -933,7 +937,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
@@ -946,7 +950,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -959,7 +963,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -969,7 +973,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
@@ -988,8 +992,11 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="J15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -999,7 +1006,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -1021,6 +1028,9 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
+      <c r="J18" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -1034,8 +1044,11 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="J19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -1045,7 +1058,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -1067,8 +1080,11 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="J22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
@@ -1097,7 +1113,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>43</v>
       </c>
@@ -1126,12 +1142,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>26</v>
       </c>
@@ -1141,7 +1157,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>19</v>
       </c>
@@ -1151,7 +1167,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
@@ -1161,7 +1177,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
@@ -1174,7 +1190,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
@@ -1192,7 +1208,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K30" xr:uid="{FE257D6B-B550-4D56-AD72-8214075EEB2B}"/>
+  <autoFilter ref="A1:K30" xr:uid="{FE257D6B-B550-4D56-AD72-8214075EEB2B}">
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
     <sortCondition ref="A2:A30"/>
   </sortState>

--- a/resources/internals/Applied SQL Statements.xlsx
+++ b/resources/internals/Applied SQL Statements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\Konnexions\db_seeder\resources\internals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE49F3C3-9A1F-4096-B53D-AC73B987DB31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662F8D28-48B9-4036-94BC-51013D0DFBED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25770" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{3D060459-F684-4951-98F4-AECBFBBAE517}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
   <si>
     <t>DATABASE</t>
   </si>
@@ -147,13 +147,6 @@
   </si>
   <si>
     <t>DB_SEEDER_DATABASE=kxn_db
-DB_SEEDER_PASSWORD=hsqldb
-DB_SEEDER_SCHEMA=kxn_schema
-DB_SEEDER_USER=kxn_user
-DB_SEEDER_USER_SYS=SA</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_DATABASE=.\tmp\hsqldb_kxn_db
 DB_SEEDER_PASSWORD=hsqldb
 DB_SEEDER_SCHEMA=kxn_schema
 DB_SEEDER_USER=kxn_user
@@ -324,6 +317,24 @@
 DB_SEEDER_SCHEMA
 DB_SEEDER_USER
 DB_SEEDER_USER_SYS</t>
+  </si>
+  <si>
+    <t>see mysql</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>see hsqldb</t>
+  </si>
+  <si>
+    <t>see oracle</t>
+  </si>
+  <si>
+    <t>see derby</t>
+  </si>
+  <si>
+    <t>see sqlserver</t>
   </si>
 </sst>
 </file>
@@ -733,14 +744,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14B0BC3-55B1-47F7-9E30-19EE4D53C473}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -751,10 +761,10 @@
     <col min="7" max="7" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="61.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -771,87 +781,90 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -861,28 +874,32 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>33</v>
@@ -890,12 +907,12 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>34</v>
@@ -903,251 +920,275 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="K18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="F22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>26</v>
       </c>
@@ -1157,65 +1198,63 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K30" xr:uid="{FE257D6B-B550-4D56-AD72-8214075EEB2B}">
-    <filterColumn colId="9">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
+  <autoFilter ref="A1:L30" xr:uid="{FE257D6B-B550-4D56-AD72-8214075EEB2B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L30">
     <sortCondition ref="A2:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/internals/Applied SQL Statements.xlsx
+++ b/resources/internals/Applied SQL Statements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\Konnexions\db_seeder\resources\internals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662F8D28-48B9-4036-94BC-51013D0DFBED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6150EDBA-3394-42AA-9683-C67415485898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25770" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{3D060459-F684-4951-98F4-AECBFBBAE517}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{3D060459-F684-4951-98F4-AECBFBBAE517}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
   <si>
     <t>DATABASE</t>
   </si>
@@ -118,15 +118,6 @@
   </si>
   <si>
     <t>Properties</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_DATABASE=kxn_db
-DB_SEEDER_PASSWORD=cubrid
-DB_SEEDER_USER=kxn_user
-DB_SEEDER_USER_SYS=DBA</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_DATABASE=.\tmp\derby_kxn_db</t>
   </si>
   <si>
     <t>DB_SEEDER_DATABASE=.\tmp\sqlite_kxn_db</t>
@@ -163,14 +154,6 @@
 DB_SEEDER_DATABASE_SYS=sysmaster
 DB_SEEDER_PASSWORD_SYS=in4mix
 DB_SEEDER_USER_SYS=informix</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_DATABASE=kxn_db
-DB_SEEDER_DATABASE_SYS=mysql
-DB_SEEDER_PASSWORD=mariadb
-DB_SEEDER_PASSWORD_SYS=mariadb
-DB_SEEDER_USER=kxn_user
-DB_SEEDER_USER_SYS=root</t>
   </si>
   <si>
     <t>oracle_presto</t>
@@ -201,14 +184,6 @@
 DB_SEEDER_USER_SYS=monetdb</t>
   </si>
   <si>
-    <t>DB_SEEDER_DATABASE=kxn_db
-DB_SEEDER_DATABASE_SYS=sys
-DB_SEEDER_PASSWORD=mysql
-DB_SEEDER_PASSWORD_SYS=mysql
-DB_SEEDER_USER=kxn_user
-DB_SEEDER_USER_SYS=root</t>
-  </si>
-  <si>
     <t>DB_SEEDER_PASSWORD=oracle
 DB_SEEDER_PASSWORD_SYS=oracle
 DB_SEEDER_USER=kxn_user
@@ -216,14 +191,6 @@
   </si>
   <si>
     <t>percona</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_DATABASE=kxn_db
-DB_SEEDER_DATABASE_SYS=sys
-DB_SEEDER_PASSWORD=percona
-DB_SEEDER_PASSWORD_SYS=percona
-DB_SEEDER_USER=kxn_user
-DB_SEEDER_USER_SYS=root</t>
   </si>
   <si>
     <t>DB_SEEDER_DATABASE=kxn_db
@@ -335,6 +302,69 @@
   </si>
   <si>
     <t>see sqlserver</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_DATABASE
+DB_SEEDER_DATABASE_SYS
+DB_SEEDER_PASSWORD
+DB_SEEDER_PASSWORD_SYS
+DB_SEEDER_USER
+DB_SEEDER_USER_SYS=root</t>
+  </si>
+  <si>
+    <t>DROP DATABASE IF EXISTS `databaseName`
+DROP USER IF EXISTS ` userName`</t>
+  </si>
+  <si>
+    <t>CREATE DATABASE `databaseName `
+USE `databaseName`
+CREATE USER `userName` IDENTIFIED BY 'password'
+GRANT ALL ON databaseName.* TO `userName`</t>
+  </si>
+  <si>
+    <t>CREATE DATABASE `databaseName `
+USE `databaseName`
+CREATE USER `userName` IDENTIFIED BY 'password'
+GRANT ALL ON databaseName.* TO `userName`
+USE catalogName.databaseName</t>
+  </si>
+  <si>
+    <t>CREATE DATABASE `databaseName`
+USE `databaseName`
+CREATE USER 'userName'@'%' IDENTIFIED BY 'password'
+GRANT ALL PRIVILEGES ON *.* TO 'userName'@'%'
+FLUSH PRIVILEGES</t>
+  </si>
+  <si>
+    <t>DROP USER userName</t>
+  </si>
+  <si>
+    <t>CREATE USER userName PASSWORD 'password' GROUPS dba</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_DATABASE
+DB_SEEDER_PASSWORD
+DB_SEEDER_USER
+DB_SEEDER_USER_SYS</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_DATABASE
+DB_SEEDER_DATABASE_SSY
+DB_SEEDER_PASSWORD
+DB_SEEDER_PASSWORD_SYS
+DB_SEEDER_USER
+DB_SEEDER_USER_SYS=root</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_DATABASE
+DB_SEEDER_SCHEMA</t>
+  </si>
+  <si>
+    <t>DROP SCHEMA schemaName RESTRICT</t>
+  </si>
+  <si>
+    <t>CREATE SCHEMA schemaName
+SET CURRENT SCHEMA = schemaName</t>
   </si>
 </sst>
 </file>
@@ -747,10 +777,10 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -761,7 +791,9 @@
     <col min="7" max="7" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="61.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -781,25 +813,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -807,28 +839,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -836,56 +868,64 @@
         <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -893,16 +933,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -912,10 +952,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -925,19 +965,19 @@
         <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -945,19 +985,19 @@
         <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -965,15 +1005,15 @@
         <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -981,19 +1021,19 @@
         <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -1001,7 +1041,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1011,22 +1051,26 @@
         <v>17</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="K15" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -1034,7 +1078,7 @@
         <v>20</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1044,45 +1088,49 @@
         <v>21</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -1090,39 +1138,43 @@
         <v>23</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>47</v>
+      <c r="A22" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="K22" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -1130,57 +1182,57 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="L23" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1193,7 +1245,7 @@
         <v>26</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1203,23 +1255,23 @@
         <v>19</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1227,10 +1279,10 @@
         <v>27</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1240,16 +1292,16 @@
         <v>28</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/resources/internals/Applied SQL Statements.xlsx
+++ b/resources/internals/Applied SQL Statements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\Konnexions\db_seeder\resources\internals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6150EDBA-3394-42AA-9683-C67415485898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A593AE8-ECA7-4677-8B81-8FB99C3FA5A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{3D060459-F684-4951-98F4-AECBFBBAE517}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
   <si>
     <t>DATABASE</t>
   </si>
@@ -36,9 +36,6 @@
     <t>SCHEMA</t>
   </si>
   <si>
-    <t>TABLE</t>
-  </si>
-  <si>
     <t>USER</t>
   </si>
   <si>
@@ -120,42 +117,6 @@
     <t>Properties</t>
   </si>
   <si>
-    <t>DB_SEEDER_DATABASE=.\tmp\sqlite_kxn_db</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_PASSWORD=exasol
-DB_SEEDER_PASSWORD_SYS=exasol
-DB_SEEDER_SCHEMA=kxn_schema
-DB_SEEDER_USER=kxn_user
-DB_SEEDER_USER_SYS=sys</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_DATABASE=firebird_kxn_db
-DB_SEEDER_PASSWORD=firebird
-DB_SEEDER_PASSWORD_SYS=firebird
-DB_SEEDER_USER=kxn_user
-DB_SEEDER_USER_SYS=SYSDBA</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_DATABASE=kxn_db
-DB_SEEDER_PASSWORD=hsqldb
-DB_SEEDER_SCHEMA=kxn_schema
-DB_SEEDER_USER=kxn_user
-DB_SEEDER_USER_SYS=SA</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_DATABASE=kxn_db
-DB_SEEDER_PASSWORD_SYS=ibmdb2
-DB_SEEDER_SCHEMA=kxn_schema
-DB_SEEDER_USER_SYS=db2inst1</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_DATABASE=kxn_db
-DB_SEEDER_DATABASE_SYS=sysmaster
-DB_SEEDER_PASSWORD_SYS=in4mix
-DB_SEEDER_USER_SYS=informix</t>
-  </si>
-  <si>
     <t>oracle_presto</t>
   </si>
   <si>
@@ -168,42 +129,7 @@
     <t>postgresql_presto</t>
   </si>
   <si>
-    <t>DB_SEEDER_DATABASE=kxn_db
-DB_SEEDER_DATABASE_SYS=mimerdb
-DB_SEEDER_PASSWORD=mimer
-DB_SEEDER_PASSWORD_SYS=mimer
-DB_SEEDER_USER=kxn_user
-DB_SEEDER_USER_SYS=SYSADM</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_DATABASE_SYS=demo
-DB_SEEDER_PASSWORD=monetdb
-DB_SEEDER_PASSWORD_SYS=monetdb
-DB_SEEDER_SCHEMA=kxn_schema
-DB_SEEDER_USER=kxn_user
-DB_SEEDER_USER_SYS=monetdb</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_PASSWORD=oracle
-DB_SEEDER_PASSWORD_SYS=oracle
-DB_SEEDER_USER=kxn_user
-DB_SEEDER_USER_SYS=SYS AS SYSDBA</t>
-  </si>
-  <si>
     <t>percona</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_DATABASE=kxn_db
-DB_SEEDER_DATABASE_SYS=master
-DB_SEEDER_PASSWORD=sqlserver_2019
-DB_SEEDER_PASSWORD_SYS=sqlserver_2019
-DB_SEEDER_SCHEMA=kxn_schema
-DB_SEEDER_USER=kxn_user
-DB_SEEDER_USER_SYS=sa</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_PASSWORD=voltdb
-DB_SEEDER_USER=kxn_user</t>
   </si>
   <si>
     <t>Suffix</t>
@@ -304,14 +230,6 @@
     <t>see sqlserver</t>
   </si>
   <si>
-    <t>DB_SEEDER_DATABASE
-DB_SEEDER_DATABASE_SYS
-DB_SEEDER_PASSWORD
-DB_SEEDER_PASSWORD_SYS
-DB_SEEDER_USER
-DB_SEEDER_USER_SYS=root</t>
-  </si>
-  <si>
     <t>DROP DATABASE IF EXISTS `databaseName`
 DROP USER IF EXISTS ` userName`</t>
   </si>
@@ -366,12 +284,147 @@
     <t>CREATE SCHEMA schemaName
 SET CURRENT SCHEMA = schemaName</t>
   </si>
+  <si>
+    <t>CREATE USER userName IDENTIFIED BY " password"
+GRANT ALL PRIVILEGES TO userName
+===
+CREATE SCHEMA schemaName</t>
+  </si>
+  <si>
+    <t>[X]</t>
+  </si>
+  <si>
+    <t>CREATE USER userName PASSWORD 'password GRANT ADMIN ROLE
+GRANT CREATE TABLE TO userName</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_DATABASE
+DB_SEEDER_PASSWORD
+DB_SEEDER_SCHEMA
+DB_SEEDER_USER
+DB_SEEDER_USER_SYS</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_DATABASE
+DB_SEEDER_PASSWORD
+DB_SEEDER_PASSWORD_SYS
+DB_SEEDER_USER
+DB_SEEDER_USER_SYS</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_PASSWORD
+DB_SEEDER_PASSWORD_SYS
+DB_SEEDER_SCHEMA
+DB_SEEDER_USER
+DB_SEEDER_USER_SYS</t>
+  </si>
+  <si>
+    <t>CREATE SCHEMA schemaName
+SET CURRENT SCHEMA schemaName</t>
+  </si>
+  <si>
+    <t>DROP DATABASE IF EXISTS databaseName</t>
+  </si>
+  <si>
+    <t>CREATE DATABASE databaseName WITH LOG
+GRANT CONNECT TO PUBLIC
+GRANT RESOURCE TO PUBLIC</t>
+  </si>
+  <si>
+    <t>DATABANK</t>
+  </si>
+  <si>
+    <t>IDENT</t>
+  </si>
+  <si>
+    <t>DROP DATABANK databaseName CASCADE
+DROP IDENT userName CASCADE</t>
+  </si>
+  <si>
+    <t>CREATE DATABANK databaseName SET OPTION TRANSACTION
+CREATE IDENT userName AS USER USING 'password'
+GRANT TABLE ON DATABANK databaseName TO userName</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_PASSWORD_SYS
+DB_SEEDER_SCHEMA
+DB_SEEDER_USER_SYS</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_DATABASE
+DB_SEEDER_DATABASE_SYS
+DB_SEEDER_PASSWORD_SYS
+DB_SEEDER_USER_SYS</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_DATABASE
+DB_SEEDER_DATABASE_SYS
+DB_SEEDER_PASSWORD
+DB_SEEDER_PASSWORD_SYS
+DB_SEEDER_USER
+DB_SEEDER_USER_SYS</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_DATABASE_SYS
+DB_SEEDER_PASSWORD
+DB_SEEDER_PASSWORD_SYS
+DB_SEEDER_SCHEMA
+DB_SEEDER_USER
+DB_SEEDER_USER_SYS</t>
+  </si>
+  <si>
+    <t>ALTER USER userName SET SCHEMA sys
+DROP SCHEMA schemaName CASCADE
+CREATE SCHEMA schemaName AUTHORIZATION monetdb
+DROP USER userName
+DROP SCHEMA schemaName</t>
+  </si>
+  <si>
+    <t>CREATE USER userName WITH UNENCRYPTED PASSWORD 'password' NAME 'Dbseeder User' SCHEMA sys
+CREATE SCHEMA schemaName AUTHORIZATION userName
+ALTER USER userName SET SCHEMA schemaName</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_PASSWORD
+DB_SEEDER_PASSWORD_SYS
+DB_SEEDER_USER
+DB_SEEDER_USER_SYS</t>
+  </si>
+  <si>
+    <t>DROP USER userName CASCADE</t>
+  </si>
+  <si>
+    <t>CREATE USER userName IDENTIFIED BY "password"
+ALTER USER userName  QUOTA UNLIMITED ON users
+GRANT CREATE SESSION TO userName
+GRANT CREATE TABLE TO userName
+GRANT UNLIMITED TABLESPACE TO userName</t>
+  </si>
+  <si>
+    <t>sp_configure 'contained database authentication', 1
+RECONFIGURE
+USE master
+CREATE DATABASE databaseName
+USE master
+ALTER DATABASE databaseName SET CONTAINMENT = PARTIAL
+USE databaseName
+CREATE SCHEMA schemaName
+CREATE USER userName WITH PASSWORD = 'password', DEFAULT_SCHEMA=schemaName
+sp_addrolemember 'db_owner', 'userName'</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_DATABASE</t>
+  </si>
+  <si>
+    <t>DB_SEEDER_PASSWORD
+DB_SEEDER_USER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,14 +443,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -436,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,9 +500,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -774,31 +816,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14B0BC3-55B1-47F7-9E30-19EE4D53C473}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -810,503 +854,646 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="G22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L30" xr:uid="{FE257D6B-B550-4D56-AD72-8214075EEB2B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
     <sortCondition ref="A2:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/internals/Applied SQL Statements.xlsx
+++ b/resources/internals/Applied SQL Statements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\Konnexions\db_seeder\resources\internals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A593AE8-ECA7-4677-8B81-8FB99C3FA5A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD0634A-7B67-4B54-8B10-A5B3A4019E0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{3D060459-F684-4951-98F4-AECBFBBAE517}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="93">
   <si>
     <t>DATABASE</t>
   </si>
@@ -267,14 +267,6 @@
   </si>
   <si>
     <t>DB_SEEDER_DATABASE
-DB_SEEDER_DATABASE_SSY
-DB_SEEDER_PASSWORD
-DB_SEEDER_PASSWORD_SYS
-DB_SEEDER_USER
-DB_SEEDER_USER_SYS=root</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_DATABASE
 DB_SEEDER_SCHEMA</t>
   </si>
   <si>
@@ -344,11 +336,6 @@
     <t>CREATE DATABANK databaseName SET OPTION TRANSACTION
 CREATE IDENT userName AS USER USING 'password'
 GRANT TABLE ON DATABANK databaseName TO userName</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_PASSWORD_SYS
-DB_SEEDER_SCHEMA
-DB_SEEDER_USER_SYS</t>
   </si>
   <si>
     <t>DB_SEEDER_DATABASE
@@ -419,12 +406,18 @@
     <t>DB_SEEDER_PASSWORD
 DB_SEEDER_USER</t>
   </si>
+  <si>
+    <t>DB_SEEDER_DATABASE
+DB_SEEDER_PASSWORD_SYS
+DB_SEEDER_SCHEMA
+DB_SEEDER_USER_SYS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +443,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -481,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -502,12 +503,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -822,7 +831,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -888,13 +897,13 @@
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -952,13 +961,13 @@
         <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -968,13 +977,13 @@
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -989,10 +998,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>45</v>
@@ -1003,19 +1012,19 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>62</v>
@@ -1057,13 +1066,13 @@
       <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1087,12 +1096,12 @@
         <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1112,40 +1121,40 @@
       <c r="E12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -1156,19 +1165,19 @@
         <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -1182,7 +1191,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>61</v>
@@ -1199,22 +1208,22 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -1231,13 +1240,13 @@
         <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -1248,7 +1257,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>59</v>
@@ -1267,13 +1276,13 @@
       <c r="E19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="8" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="8" t="s">
         <v>52</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -1288,13 +1297,13 @@
         <v>35</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1304,30 +1313,30 @@
       <c r="D21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="G22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>52</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1373,13 +1382,13 @@
       <c r="D24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -1391,7 +1400,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1399,7 +1408,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1421,10 +1430,10 @@
         <v>43</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1440,13 +1449,13 @@
       <c r="D28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1455,13 +1464,13 @@
         <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>

--- a/resources/internals/Applied SQL Statements.xlsx
+++ b/resources/internals/Applied SQL Statements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\Konnexions\db_seeder\resources\internals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD0634A-7B67-4B54-8B10-A5B3A4019E0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8515B61-7262-4ED2-BB25-3BD68630F61D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{3D060459-F684-4951-98F4-AECBFBBAE517}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>DATABASE</t>
   </si>
@@ -185,12 +185,6 @@
   <si>
     <t>CREATE USER  userName  WITH (PASSWORD = 'password')
 GRANT ALL PRIVILEGES TO  userName</t>
-  </si>
-  <si>
-    <t>DB_SEEDER_DATABASE
-DB_SEEDER_PASSWORD
-DB_SEEDER_SCHEMA
-DB_SEEDER_USER</t>
   </si>
   <si>
     <t>DROP SCHEMA schemaName CASCADE
@@ -828,10 +822,10 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -875,7 +869,7 @@
         <v>37</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>39</v>
@@ -937,17 +931,14 @@
       <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>35</v>
@@ -961,13 +952,13 @@
         <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -978,13 +969,13 @@
         <v>35</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -998,10 +989,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>45</v>
@@ -1012,25 +1003,25 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1041,13 +1032,13 @@
         <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>35</v>
@@ -1067,13 +1058,13 @@
         <v>35</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>35</v>
@@ -1096,13 +1087,13 @@
         <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>35</v>
@@ -1122,13 +1113,13 @@
         <v>35</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
@@ -1139,22 +1130,22 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -1165,19 +1156,19 @@
         <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -1191,13 +1182,13 @@
         <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>35</v>
@@ -1208,22 +1199,22 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -1240,13 +1231,13 @@
         <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -1257,13 +1248,13 @@
         <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>35</v>
@@ -1277,13 +1268,13 @@
         <v>35</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>35</v>
@@ -1297,13 +1288,13 @@
         <v>35</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1314,13 +1305,13 @@
         <v>35</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1331,13 +1322,13 @@
         <v>35</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>35</v>
@@ -1400,7 +1391,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1408,7 +1399,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1430,10 +1421,10 @@
         <v>43</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1450,13 +1441,13 @@
         <v>35</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1464,13 +1455,13 @@
         <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1489,7 +1480,7 @@
         <v>35</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>42</v>
